--- a/整合結果/自由時報/excel_by_week/2025_W24.xlsx
+++ b/整合結果/自由時報/excel_by_week/2025_W24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C273"/>
+  <dimension ref="A1:C277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>市值型ETF「銅板化」 法人看報酬率穩定度更重要</t>
+          <t>沒在工作也可保勞保 勞動部籲「5大類勞工」繼續投保維護權益</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5070452</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5070464?utm_campaign=STARK_business_DQN&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>統一企業總經理爆大黑馬 由統一超商協理郭慶峰三級跳升任</t>
+          <t>市值型ETF「銅板化」 法人看報酬率穩定度更重要</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5070348?utm_campaign=LTN&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5070452</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>對付稀土斷貨新籌碼 美國限制「這產品」出口中國</t>
+          <t>黃金自1週低點反彈上漲！但「1情況」恐不利</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5069187?utm_campaign=LTN&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5069802</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>不是黃金也非白銀！中國正瘋搶「這種貴金屬」</t>
+          <t>川普斷哈佛留學生簽證！經濟代價出爐</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5069824?utm_campaign=STARK_business_DQN&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5069781?utm_campaign=STARK_business_DQN&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>美國人「不買」電動車了 ! 購買意願只剩16％ 最擔心「這原因」</t>
+          <t>不是黃金也非白銀！中國正瘋搶「這種貴金屬」</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5069803?utm_campaign=STARK_business_DQN&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5069824?utm_campaign=STARK_business_DQN&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>第一次看房要注意啥？美資深房仲教你5招破解「表面裝潢陷阱」</t>
+          <t>美國人「不買」電動車了 ! 購買意願只剩16％ 最擔心「這原因」</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5069780</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5069803?utm_campaign=STARK_business_DQN&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>萬海貨輪大爆炸「載什麼」？疑釀禍「貨物清單」曝光</t>
+          <t>第一次看房要注意啥？美資深房仲教你5招破解「表面裝潢陷阱」</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5069794?utm_campaign=LTN&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5069780</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>美Costco放大招！黑鑽卡會員最新專屬福利曝光</t>
+          <t>萬海貨輪大爆炸「載什麼」？疑釀禍「貨物清單」曝光</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5069792?utm_campaign=STARK_business_DQN&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5069794?utm_campaign=LTN&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>黃金自1週低點反彈上漲！但「1情況」恐不利</t>
+          <t>美Costco放大招！黑鑽卡會員最新專屬福利曝光</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5069802</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5069792?utm_campaign=STARK_business_DQN&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
         </is>
       </c>
     </row>
@@ -1036,29 +1036,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>川普斷哈佛留學生簽證！經濟代價出爐</t>
+          <t>對付稀土斷貨新籌碼 美國限制「這產品」出口中國</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5069781?utm_campaign=STARK_business_DQN&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5069187?utm_campaign=LTN&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>政策利多！OIU免稅優惠再延10年 初審通過</t>
+          <t>統一企業總經理爆大黑馬 由統一超商協理郭慶峰三級跳升任</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072205</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5070348?utm_campaign=LTN&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>桃市府打造桃園供應鏈與物流智慧運籌聯盟 促產業升級、創新</t>
+          <t>回應美國商會憂我基載電力 經部：外界無須過度擔憂、誤解</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072217</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072165</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>憂空污法修法恐釀不可逆損害 工總籲維持現行機制</t>
+          <t>桃市府打造桃園供應鏈與物流智慧運籌聯盟 促產業升級、創新</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072208</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072217</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>回應美國商會憂我基載電力 經部：外界無須過度擔憂、誤解</t>
+          <t>憂空污法修法恐釀不可逆損害 工總籲維持現行機制</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072165</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072208</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1季要花近百億 租金補貼連兩季核撥逾50萬戶</t>
+          <t>政策利多！OIU免稅優惠再延10年 初審通過</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5071483</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072205</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>黃金下挫！市場都在等跌到這「甜甜價」</t>
+          <t>1季要花近百億 租金補貼連兩季核撥逾50萬戶</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5071073</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5071483</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>美國國會預算辦公室示警 美國債務危機再二個月要爆了</t>
+          <t>富蘭克林華美推T+3基金贖回快速入賬 用戶資金調度更靈活</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5070209?utm_campaign=STARK_business_DQN&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5071218</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>萬海旺春輪爆炸恐沉沒 印度海防秀搜救空拍照</t>
+          <t>黃金下挫！市場都在等跌到這「甜甜價」</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5070883?utm_campaign=STARK_Recommender&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5071073</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>台積先進製程一個人的武林 英特爾18A最新良率曝光了</t>
+          <t>美國國會預算辦公室示警 美國債務危機再二個月要爆了</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5070864?utm_campaign=STARK_Recommender&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5070209?utm_campaign=STARK_business_DQN&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
         </is>
       </c>
     </row>
@@ -1206,29 +1206,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>富蘭克林華美推T+3基金贖回快速入賬 用戶資金調度更靈活</t>
+          <t>萬海旺春輪爆炸恐沉沒 印度海防秀搜救空拍照</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5071218</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5070883?utm_campaign=STARK_Recommender&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-06-11</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>美元急殺、亞幣狂飆！ 新台幣升值逾2角 最高見29.625元</t>
+          <t>台積先進製程一個人的武林 英特爾18A最新良率曝光了</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072728</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5070864?utm_campaign=STARK_Recommender&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>全球90％晶片來自台灣！外媒曝依賴「MIT」的美國挑戰</t>
+          <t>川普祭關稅戰想發數千億大財 ? 華爾街日報揭美政府「真實收入」</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072379</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072370</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>川普祭關稅戰想發數千億大財 ? 華爾街日報揭美政府「真實收入」</t>
+          <t>首次！歐盟將制裁中國銀行 外媒曝原因</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072370</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072870</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>美元脫鉤？亞洲國家加速去美元化</t>
+          <t>全球90％晶片來自台灣！外媒曝依賴「MIT」的美國挑戰</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072599</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072379</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>第9屆經濟部國家產業創新獎 成大教授助力台灣產業升級</t>
+          <t>美元脫鉤？亞洲國家加速去美元化</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072733</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072599</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>中國中鐵上海工程局停發績效獎金引熱議 網友：形同變相裁員</t>
+          <t>第9屆經濟部國家產業創新獎 成大教授助力台灣產業升級</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072645</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072733</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>高盛：美即使SALT扣除額提高 富人仍將持續撤離高稅率州</t>
+          <t>中國中鐵上海工程局停發績效獎金引熱議 網友：形同變相裁員</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072643</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072645</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>設籍有撇步！成年子女設籍地價稅再享自用住宅優惠稅率</t>
+          <t>川普關稅重創經濟核心 日本車廠恐損失逾190億美元</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072700</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072465</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>衝動購物只能排第2名！美國人最常見的5大浪費行為曝光</t>
+          <t>設籍有撇步！成年子女設籍地價稅再享自用住宅優惠稅率</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072392</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072700</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>首次！歐盟將制裁中國銀行 外媒曝原因</t>
+          <t>衝動購物只能排第2名！美國人最常見的5大浪費行為曝光</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072870</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072392</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>美億萬富翁家族擬出清40家中國科企股權 最低殺到2折</t>
+          <t>三星吃不到！傳高通新晶片採2奈米製程 台積電獨吞肥單</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072905</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072947</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CNBC：美出口管制 卡喉中國AI晶片「4關鍵領域」</t>
+          <t>美億萬富翁家族擬出清40家中國科企股權 最低殺到2折</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072942</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072905</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>還有機會！威力彩頭獎連31摃 下期獎金上看12.6億</t>
+          <t>美元急殺、亞幣狂飆！ 新台幣升值逾2角 最高見29.625元</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073519</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072728</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>王道銀行遭代辦業者冒名 金管會示警</t>
+          <t>還有機會！威力彩頭獎連31摃 下期獎金上看12.6億</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073508</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073519</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>新制勞退16億美元海外代操遴選 4家中選名單揭曉</t>
+          <t>王道銀行遭代辦業者冒名 金管會示警</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073477</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073508</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>貴金屬大爆發！ 鉑金今年已經噴漲40％</t>
+          <t>新制勞退16億美元海外代操遴選 4家中選名單揭曉</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072924</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073477</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>韓媒驚爆 三星晶圓代工高管兩年砍掉15人</t>
+          <t>貴金屬大爆發！ 鉑金今年已經噴漲40％</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073110</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072924</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>台電:用電創高啟用大林電廠5號燃氣機組 官網均揭露</t>
+          <t>韓媒驚爆 三星晶圓代工高管兩年砍掉15人</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073371</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073110</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>金管會督導期交所 精進三階段漲跌幅機制</t>
+          <t>台電:用電創高啟用大林電廠5號燃氣機組 官網均揭露</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073305</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073371</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Google Cloud、健保署合作 擬開發糖尿病AI代理改善照護</t>
+          <t>金管會督導期交所 精進三階段漲跌幅機制</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073302</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073305</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>《紐約時報》正改變標誌性專欄背後的經營策略</t>
+          <t>Google Cloud、健保署合作 擬開發糖尿病AI代理改善照護</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072990</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073302</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>國有房地包租再標脫22戶 決標金額267萬</t>
+          <t>《紐約時報》正改變標誌性專欄背後的經營策略</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073241</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072990</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>上半年IPO籌資218億 半導體逾91億領軍資本市場</t>
+          <t>國有房地包租再標脫22戶 決標金額267萬</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073175</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073241</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>航發會改派台灣高鐵法人代表 史哲任董事長</t>
+          <t>上半年IPO籌資218億 半導體逾91億領軍資本市場</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073167</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073175</t>
         </is>
       </c>
     </row>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>新台幣勁揚2.6角！收29.66元 創近3年新高</t>
+          <t>航發會改派台灣高鐵法人代表 史哲任董事長</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073177</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073167</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>三星電子慘了！HBM3E晶片第三次未通過輝達認證</t>
+          <t>新台幣勁揚2.6角！收29.66元 創近3年新高</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073130</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073177</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>監察院通過彈劾勞發署謝宜容、蔡孟良 勞動部尊重並配合調查</t>
+          <t>三星電子慘了！HBM3E晶片第三次未通過輝達認證</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073056</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073130</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>三星吃不到！傳高通新晶片採2奈米製程 台積電獨吞肥單</t>
+          <t>監察院通過彈劾勞發署謝宜容、蔡孟良 勞動部尊重並配合調查</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072947</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073056</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>外國投資者5月狂買2494億韓國債！彭博揭創史高主因</t>
+          <t>CNBC：美出口管制 卡喉中國AI晶片「4關鍵領域」</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072615</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072942</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>川普關稅重創經濟核心 日本車廠恐損失逾190億美元</t>
+          <t>外國投資者5月狂買2494億韓國債！彭博揭創史高主因</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072465</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072615</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>挑戰5月初劇升關卡29.59元！新台幣狂升2.95角</t>
+          <t>高盛：美即使SALT扣除額提高 富人仍將持續撤離高稅率州</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072649</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072643</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>美中達協議「框架」 川普︰對中關稅55%</t>
+          <t>挑戰5月初劇升關卡29.59元！新台幣狂升2.95角</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711202</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072649</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>美上訴法院︰川普關稅 訴訟期可續執行</t>
+          <t>美中達協議「框架」 川普︰對中關稅55%</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711203</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711202</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>突破中市府卡關 中火一號機試俥</t>
+          <t>美上訴法院︰川普關稅 訴訟期可續執行</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711196</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711203</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>盤勢分析》解套賣壓 限制指數上攻</t>
+          <t>突破中市府卡關 中火一號機試俥</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711146</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711196</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>熱門股》投信連7買 富世達攻上漲停</t>
+          <t>盤勢分析》解套賣壓 限制指數上攻</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711144</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711146</t>
         </is>
       </c>
     </row>
@@ -1954,12 +1954,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>熱門股》下半年看俏 華星光創近期新高</t>
+          <t>熱門股》投信連7買 富世達攻上漲停</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711143</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711144</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>打造亞資中心 保險OIU免稅延長10年</t>
+          <t>熱門股》下半年看俏 華星光創近期新高</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711204</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711143</t>
         </is>
       </c>
     </row>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>股東會速報》亞力3大成長動能 今年獲利優去年</t>
+          <t>打造亞資中心 保險OIU免稅延長10年</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711142</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711204</t>
         </is>
       </c>
     </row>
@@ -2005,12 +2005,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>房租漲不停 租補連2季逾50萬戶</t>
+          <t>股東會速報》亞力3大成長動能 今年獲利優去年</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711200</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711142</t>
         </is>
       </c>
     </row>
@@ -2022,12 +2022,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>合庫金碳揭露有成 入選CDP最高A級領導企業</t>
+          <t>房租漲不停 租補連2季逾50萬戶</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711141</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711200</t>
         </is>
       </c>
     </row>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>去年33.9％廠商調薪 創24年新高</t>
+          <t>合庫金碳揭露有成 入選CDP最高A級領導企業</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711199</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711141</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>南山人壽股東會 宣示領航永續健康</t>
+          <t>去年33.9％廠商調薪 創24年新高</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711201</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711199</t>
         </is>
       </c>
     </row>
@@ -2073,12 +2073,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>5月證交稅連三黑 跌幅28個月最大</t>
+          <t>南山人壽股東會 宣示領航永續健康</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711198</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711201</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2090,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2026提早無煤？ 盧電力數學3大BUG</t>
+          <t>5月證交稅連三黑 跌幅28個月最大</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711197</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711198</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2107,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>中東緊張情勢加劇 國際油價大漲</t>
+          <t>2026提早無煤？ 盧電力數學3大BUG</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072303</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711197</t>
         </is>
       </c>
     </row>
@@ -2124,12 +2124,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>國定假日多4天 求職網：8成勞工寧可「增加薪水」</t>
+          <t>中東緊張情勢加劇 國際油價大漲</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072641</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072303</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>國產內線交易案 林孝信判2年 緩刑4年</t>
+          <t>國定假日多4天 求職網：8成勞工寧可「增加薪水」</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711140</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072641</t>
         </is>
       </c>
     </row>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>財經青紅燈》預售屋履保該檢討了</t>
+          <t>國產內線交易案 林孝信判2年 緩刑4年</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711145</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711140</t>
         </is>
       </c>
     </row>
@@ -2175,12 +2175,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>台塑積極布局半導體︰今年業績會比去年好</t>
+          <t>財經青紅燈》預售屋履保該檢討了</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711139</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711145</t>
         </is>
       </c>
     </row>
@@ -2192,12 +2192,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>大地震預言引恐慌 7月初台北飛日本機票最多降27％</t>
+          <t>台塑積極布局半導體︰今年業績會比去年好</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072373</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711139</t>
         </is>
       </c>
     </row>
@@ -2209,12 +2209,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>再向聯準會喊話 川普：利率應降1個百分點</t>
+          <t>大地震預言引恐慌 7月初台北飛日本機票最多降27％</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072350</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072373</t>
         </is>
       </c>
     </row>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>美元急殺！亞幣全面反攻 新台幣升破29.8元關卡</t>
+          <t>《經濟學人》：美國陷入工業幻想 製造業難吸引勞工</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072477</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072355</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>《經濟學人》：美國陷入工業幻想 製造業難吸引勞工</t>
+          <t>黃金小漲要破「1高點價格」有機會？但專家揭「1狀況」</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072355</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072371</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>爆料中國要求開放晶片出口30次 美商務部長「1字」回應</t>
+          <t>再向聯準會喊話 川普：利率應降1個百分點</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072472</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072350</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>這公司可就滯留在俄羅斯的飛機 索賠超過10億美元保險</t>
+          <t>爆料中國要求開放晶片出口30次 美商務部長「1字」回應</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072441</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072472</t>
         </is>
       </c>
     </row>
@@ -2294,12 +2294,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>黃仁勳宣佈在歐洲建20家「AI工廠」 歐洲AI算力2年增10倍</t>
+          <t>這公司可就滯留在俄羅斯的飛機 索賠超過10億美元保險</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072423</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072441</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>北台下半年百億級大案 獨缺桃園</t>
+          <t>別買長天期美債？新債王岡拉克全說了：清算時刻即將到來</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072524</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072348</t>
         </is>
       </c>
     </row>
@@ -2328,12 +2328,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>別買長天期美債？新債王岡拉克全說了：清算時刻即將到來</t>
+          <t>黃仁勳宣佈在歐洲建20家「AI工廠」 歐洲AI算力2年增10倍</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072348</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072423</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>關稅暫停期限再延長？川普表態：願意延長以便貿易談判</t>
+          <t>美元急殺！亞幣全面反攻 新台幣升破29.8元關卡</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072466</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072477</t>
         </is>
       </c>
     </row>
@@ -2362,12 +2362,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>各國央行瘋狂掃貨黃金！「這貨幣」都被擠下去了</t>
+          <t>中國電商Temu因虛假廣告在韓被罰款777萬元</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072339</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072467</t>
         </is>
       </c>
     </row>
@@ -2379,12 +2379,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>經濟學人揭露：美國和中國如何在貿易戰中互相恐嚇</t>
+          <t>關稅暫停期限再延長？川普表態：願意延長以便貿易談判</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072352</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072466</t>
         </is>
       </c>
     </row>
@@ -2396,12 +2396,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>白宮人工智慧沙皇駁斥末日論和大規模失業擔憂</t>
+          <t>各國央行瘋狂掃貨黃金！「這貨幣」都被擠下去了</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072385</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072339</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2413,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>留後路！WSJ：中國放寬稀土出口許可設6個月限制</t>
+          <t>經濟學人揭露：美國和中國如何在貿易戰中互相恐嚇</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072347</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072352</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>中國電商Temu因虛假廣告在韓被罰款777萬元</t>
+          <t>白宮人工智慧沙皇駁斥末日論和大規模失業擔憂</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072467</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072385</t>
         </is>
       </c>
     </row>
@@ -2464,29 +2464,29 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>黃金小漲要破「1高點價格」有機會？但專家揭「1狀況」</t>
+          <t>北台下半年百億級大案 獨缺桃園</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5072371</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072524</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>川普對等關稅豁免大限將至 謝金河：看起來可能會延期</t>
+          <t>留後路！WSJ：中國放寬稀土出口許可設6個月限制</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074135</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5072347</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074098</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074098?utm_campaign=STARK_business_CTR&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
         </is>
       </c>
     </row>
@@ -2549,12 +2549,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>比去年多近1倍！路透曝鴻海印度製97％ iPhone全運往美國</t>
+          <t>川普對等關稅豁免大限將至 謝金河：看起來可能會延期</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074182</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074135</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>狂追台積電 三星力拼2奈米良率50％</t>
+          <t>廣達高層按讚AI伺服器業務 車載、智慧醫療增添柴火</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074110</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074214</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2583,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>廣達高層按讚AI伺服器業務 車載、智慧醫療增添柴火</t>
+          <t>狂追台積電 三星力拼2奈米良率50％</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074214</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074110</t>
         </is>
       </c>
     </row>
@@ -2617,12 +2617,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>AI玩具來了！OpenAI助攻 芭比娃娃將擁有「大腦」</t>
+          <t>比去年多近1倍！路透曝鴻海印度製97％ iPhone全運往美國</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073744</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074182</t>
         </is>
       </c>
     </row>
@@ -2634,12 +2634,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>華南金股東會通過1.35元股利案 總座：未來5年拼獲利、配息成長</t>
+          <t>AI玩具來了！OpenAI助攻 芭比娃娃將擁有「大腦」</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074241</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073744</t>
         </is>
       </c>
     </row>
@@ -2651,12 +2651,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>以色列炸伊朗 比特幣腥風血雨爆倉339億 25萬人慘斷頭出場</t>
+          <t>華南金股東會通過1.35元股利案 總座：未來5年拼獲利、配息成長</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074124</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074241</t>
         </is>
       </c>
     </row>
@@ -2668,12 +2668,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>東元領供應商低碳轉型 2025年「1+N碳管理計畫」啟動</t>
+          <t>以色列炸伊朗 比特幣腥風血雨爆倉339億 25萬人慘斷頭出場</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074115</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074124</t>
         </is>
       </c>
     </row>
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>加油族注意！下週國內油價估持平或降0.1元</t>
+          <t>東元領供應商低碳轉型 2025年「1+N碳管理計畫」啟動</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074029</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074115</t>
         </is>
       </c>
     </row>
@@ -2702,12 +2702,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>小摩揭驚人預測！若有「這狀況」、油價恐飆破每桶120美元</t>
+          <t>加油族注意！下週國內油價估持平或降0.1元</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073672</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074029</t>
         </is>
       </c>
     </row>
@@ -2719,12 +2719,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>全球人才發展領域「奧斯卡獎」！聯發科榮獲ATD卓越實務獎</t>
+          <t>小摩揭驚人預測！若有「這狀況」、油價恐飆破每桶120美元</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074095</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073672</t>
         </is>
       </c>
     </row>
@@ -2736,12 +2736,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>台灣「2關鍵」很重要！外媒曝牽動全球經濟命運</t>
+          <t>全球人才發展領域「奧斯卡獎」！聯發科榮獲ATD卓越實務獎</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073703</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074095</t>
         </is>
       </c>
     </row>
@@ -2753,12 +2753,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>聯發科投入產學資源 促進半導體前瞻技術研發與高階人才培育</t>
+          <t>台灣「2關鍵」很重要！外媒曝牽動全球經濟命運</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074076</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073703?utm_campaign=STARK_business_CTR&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
         </is>
       </c>
     </row>
@@ -2770,12 +2770,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>王道銀股東常會通過配發現金股利0.5元</t>
+          <t>聯發科投入產學資源 促進半導體前瞻技術研發與高階人才培育</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074043</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074076</t>
         </is>
       </c>
     </row>
@@ -2787,12 +2787,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>台股收盤》台積電、聯發科雙王領跌 指數收跌214點</t>
+          <t>王道銀股東常會通過配發現金股利0.5元</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073675</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074043</t>
         </is>
       </c>
     </row>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>美經濟衰退捲土重來！彭博：最大風險不是川普貿易戰 是這隻「黑天鵝」</t>
+          <t>台股收盤》台積電、聯發科雙王領跌 指數收跌214點</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073643</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073675</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>家禽電宰廠超秦6月中登錄興櫃 今年屠宰量上看2000萬隻</t>
+          <t>美經濟衰退捲土重來！彭博：最大風險不是川普貿易戰 是這隻「黑天鵝」</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073998</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073643</t>
         </is>
       </c>
     </row>
@@ -2838,12 +2838,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>士電重電訂單滿 新竹持續擴2座新廠、美國設廠持續評估</t>
+          <t>家禽電宰廠超秦6月中登錄興櫃 今年屠宰量上看2000萬隻</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074016</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073998</t>
         </is>
       </c>
     </row>
@@ -2855,12 +2855,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>小股東不滿股利配發率 富邦金蔡明興：金融業走得遠才會贏</t>
+          <t>士電重電訂單滿 新竹持續擴2座新廠、美國設廠持續評估</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074011</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074016</t>
         </is>
       </c>
     </row>
@@ -2872,12 +2872,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>高鐵開發助攻 竹科管理局長胡世民：宜蘭科學園區將成企業首選</t>
+          <t>小股東不滿股利配發率 富邦金蔡明興：金融業走得遠才會贏</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074243</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074011</t>
         </is>
       </c>
     </row>
@@ -2889,12 +2889,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>聯邦銀通過配發股利1.05元 已遞件申請「財管2.0」並成立證券子公司</t>
+          <t>高鐵開發助攻 竹科管理局長胡世民：宜蘭科學園區將成企業首選</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074109</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074243</t>
         </is>
       </c>
     </row>
@@ -2906,12 +2906,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>汎德永業每股配發18.5元現金股利 改採每半年配息政策</t>
+          <t>聯邦銀通過配發股利1.05元 已遞件申請「財管2.0」並成立證券子公司</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074268</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074109</t>
         </is>
       </c>
     </row>
@@ -2923,12 +2923,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>聯電資深副總賣股1200張 市值5694萬元</t>
+          <t>汎德永業每股配發18.5元現金股利 改採每半年配息政策</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074540</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074268</t>
         </is>
       </c>
     </row>
@@ -2940,12 +2940,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>00919換股完畢！前3大持股全是金融 最大贏家是它</t>
+          <t>聯電資深副總賣股1200張 市值5694萬元</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074307</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074540</t>
         </is>
       </c>
     </row>
@@ -2957,12 +2957,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>匯損衝擊股東憂凱壽續虧 凱基金董座為獲利「掛保證」</t>
+          <t>00919換股完畢！前3大持股全是金融 最大贏家是它</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073970</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074307</t>
         </is>
       </c>
     </row>
@@ -2974,12 +2974,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>大樂透頭獎連4摃 加碼100萬獎只剩12組</t>
+          <t>匯損衝擊股東憂凱壽續虧 凱基金董座為獲利「掛保證」</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074662</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073970</t>
         </is>
       </c>
     </row>
@@ -2991,12 +2991,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>中東情勢緊繃 油價狂飆、道瓊嚇跌</t>
+          <t>大樂透頭獎連4摃 加碼100萬獎只剩12組</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074663</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074662</t>
         </is>
       </c>
     </row>
@@ -3008,12 +3008,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>東台不配發股利 在手訂單30億元</t>
+          <t>中東情勢緊繃 油價狂飆、道瓊嚇跌</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074644</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074663</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>彰銀股東會通過每股1元股利 聚焦「雙翅膀」策略迎120週年</t>
+          <t>東台不配發股利 在手訂單30億元</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074583</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074644</t>
         </is>
       </c>
     </row>
@@ -3042,12 +3042,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>長科 *斥資4.25億元買回庫藏股 執行率8成</t>
+          <t>彰銀股東會通過每股1元股利 聚焦「雙翅膀」策略迎120週年</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074560</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074583</t>
         </is>
       </c>
     </row>
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>外媒點名「5檔AI股」值得立即購買 台積電上榜</t>
+          <t>長科 *斥資4.25億元買回庫藏股 執行率8成</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074545</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074560</t>
         </is>
       </c>
     </row>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>華南金最大民股啟動世代交替 林知延接任副董、林明成功成身退</t>
+          <t>外媒點名「5檔AI股」值得立即購買 台積電上榜</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074549</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074545</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3093,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>涉澄清湖大樓購地案遭判刑！辜仲諒辭中信金董事</t>
+          <t>華南金最大民股啟動世代交替 林知延接任副董、林明成功成身退</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074553</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074549</t>
         </is>
       </c>
     </row>
@@ -3110,12 +3110,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>台幣升勢受阻 收29.668元貶0.8分 靜待超級央行周訊號</t>
+          <t>涉澄清湖大樓購地案遭判刑！辜仲諒辭中信金董事</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074514</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074553</t>
         </is>
       </c>
     </row>
@@ -3127,12 +3127,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>星際之門首家受惠台廠 華城許逸德：AI對重電推波助瀾</t>
+          <t>台幣升勢受阻 收29.668元貶0.8分 靜待超級央行周訊號</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074482</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074514</t>
         </is>
       </c>
     </row>
@@ -3144,12 +3144,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>運力過多 美西運價暴跌26.5％</t>
+          <t>星際之門首家受惠台廠 華城許逸德：AI對重電推波助瀾</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074287</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074482</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3161,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>台股強漲推升外資部位 台灣淨債權國地位退居全球第六</t>
+          <t>運力過多 美西運價暴跌26.5％</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074472</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074287</t>
         </is>
       </c>
     </row>
@@ -3178,12 +3178,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>和碩強化美國佈局 斥資28.2億元設全資子公司</t>
+          <t>台股強漲推升外資部位 台灣淨債權國地位退居全球第六</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074379</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074472</t>
         </is>
       </c>
     </row>
@@ -3195,12 +3195,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>元大金董總交棒 翁健接任董座、黃維誠代理總座</t>
+          <t>和碩強化美國佈局 斥資28.2億元設全資子公司</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074377</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074379</t>
         </is>
       </c>
     </row>
@@ -3212,12 +3212,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>高鐵董事會推選史哲擔任董事長 陳惠裕任總經理</t>
+          <t>元大金董總交棒 翁健接任董座、黃維誠代理總座</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074354</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074377</t>
         </is>
       </c>
     </row>
@@ -3229,12 +3229,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>下半年關稅拉貨效應消退 台綜院估今年經濟成長2.9％</t>
+          <t>高鐵董事會推選史哲擔任董事長 陳惠裕任總經理</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074370</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074354</t>
         </is>
       </c>
     </row>
@@ -3246,12 +3246,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>國泰金控第3代接班啟動 蔡宗翰當選副董事長</t>
+          <t>下半年關稅拉貨效應消退 台綜院估今年經濟成長2.9％</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074362</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074370</t>
         </is>
       </c>
     </row>
@@ -3263,12 +3263,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>台股跌214點外資狂掃6金融！這檔敲進逾2萬張最搶手 本週買7.49萬張</t>
+          <t>國泰金控第3代接班啟動 蔡宗翰當選副董事長</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074365</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074362</t>
         </is>
       </c>
     </row>
@@ -3280,12 +3280,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>接班佈局！和泰汽車總經理蘇純興升任副董兼總經理</t>
+          <t>台股跌214點外資狂掃6金融！這檔敲進逾2萬張最搶手 本週買7.49萬張</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074340</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074365</t>
         </is>
       </c>
     </row>
@@ -3297,12 +3297,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>最後甜點不放過！外資搶在00919換股完畢日倒貨這檔新兵逾3萬張</t>
+          <t>接班佈局！和泰汽車總經理蘇純興升任副董兼總經理</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074349</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074340</t>
         </is>
       </c>
     </row>
@@ -3314,12 +3314,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>基隆七堵新發製鋼開發產業園區 預估增加450個就業機會</t>
+          <t>最後甜點不放過！外資搶在00919換股完畢日倒貨這檔新兵逾3萬張</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074314</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074349</t>
         </is>
       </c>
     </row>
@@ -3331,12 +3331,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>00919換股最後1天大苦主出爐！這老將8天大砍逾20萬張</t>
+          <t>基隆七堵新發製鋼開發產業園區 預估增加450個就業機會</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074331</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074314</t>
         </is>
       </c>
     </row>
@@ -3348,12 +3348,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>勞動部攜手電商平台 全面稽核下架違法機械設備</t>
+          <t>00919換股最後1天大苦主出爐！這老將8天大砍逾20萬張</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074291</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074331</t>
         </is>
       </c>
     </row>
@@ -3365,12 +3365,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>中國味太濃？越南恐淪為川普關稅戰最大輸家</t>
+          <t>勞動部攜手電商平台 全面稽核下架違法機械設備</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074276</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074291</t>
         </is>
       </c>
     </row>
@@ -3382,12 +3382,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>嘉澤：上下半年營收48：52 AI貢獻不如預期</t>
+          <t>中國味太濃？越南恐淪為川普關稅戰最大輸家</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073972</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074276</t>
         </is>
       </c>
     </row>
@@ -3399,12 +3399,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>市場權衡關稅威脅及中東衝突風險 國際油價持穩</t>
+          <t>嘉澤：上下半年營收48：52 AI貢獻不如預期</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073610</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073972</t>
         </is>
       </c>
     </row>
@@ -3416,12 +3416,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>股王信驊今日除息52元 盤中順利填息</t>
+          <t>甲骨文飆13％提振科技股！道瓊漲101點 台積電ADR升近1％</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073964</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073611</t>
         </is>
       </c>
     </row>
@@ -3433,12 +3433,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>要交出商業機密才能換稀土！中國出奧步</t>
+          <t>股王信驊今日除息52元 盤中順利填息</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073012</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073964</t>
         </is>
       </c>
     </row>
@@ -3450,12 +3450,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>黃仁勳：美國技術領先中國一世代 華為將主導當地市場</t>
+          <t>MACO！馬斯克向川普認錯後獲網封新綽號</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073453</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073052</t>
         </is>
       </c>
     </row>
@@ -3467,12 +3467,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>搶救壽險業匯損 金管會祭出3大寬容措施</t>
+          <t>要交出商業機密才能換稀土！中國出奧步</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073456</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073012</t>
         </is>
       </c>
     </row>
@@ -3484,12 +3484,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>LTN經濟通》冰天雪地 卻成大國必爭之地</t>
+          <t>黃仁勳：美國技術領先中國一世代 華為將主導當地市場</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5062809</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073453</t>
         </is>
       </c>
     </row>
@@ -3501,12 +3501,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>燒錢在美設廠還被嫌棄！這家晶片廠工程延宕每天噴掉1.5億</t>
+          <t>搶救壽險業匯損 金管會祭出3大寬容措施</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073505</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073456</t>
         </is>
       </c>
     </row>
@@ -3518,12 +3518,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>波音787-8型夢幻客機遇空難全毀 波音股價大跌近5％</t>
+          <t>LTN經濟通》冰天雪地 卻成大國必爭之地</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073494</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5062809</t>
         </is>
       </c>
     </row>
@@ -3535,12 +3535,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>甲骨文飆13％提振科技股！道瓊漲101點 台積電ADR升近1％</t>
+          <t>燒錢在美設廠還被嫌棄！這家晶片廠工程延宕每天噴掉1.5億</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073611</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073505</t>
         </is>
       </c>
     </row>
@@ -3552,12 +3552,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>財經青紅燈》央行柳樹越擺越大</t>
+          <t>波音787-8型夢幻客機遇空難全毀 波音股價大跌近5％</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711332</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073494</t>
         </is>
       </c>
     </row>
@@ -3569,12 +3569,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>證交所公司治理最佳5% 信義房屋連11年入選</t>
+          <t>市場權衡關稅威脅及中東衝突風險 國際油價持穩</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711334</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073610</t>
         </is>
       </c>
     </row>
@@ -3586,12 +3586,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>美︰有談判誠意 對等關稅暫停可延長</t>
+          <t>財經青紅燈》央行柳樹越擺越大</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711323</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711332</t>
         </is>
       </c>
     </row>
@@ -3603,12 +3603,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>盤勢分析》台積除息失利 上檔賣壓待消化</t>
+          <t>證交所公司治理最佳5% 信義房屋連11年入選</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711333</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711334</t>
         </is>
       </c>
     </row>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>熱門股》特斯拉推自駕車 亞光股漲</t>
+          <t>美︰有談判誠意 對等關稅暫停可延長</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711331</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711323</t>
         </is>
       </c>
     </row>
@@ -3637,12 +3637,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>熱門股》外資買翻天 神達爆量大漲</t>
+          <t>他出售山坡地險被追繳贈與稅 這樣做終於解套</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711330</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073199</t>
         </is>
       </c>
     </row>
@@ -3654,12 +3654,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>政院：盤整最終方案 爭取最大利益</t>
+          <t>盤勢分析》台積除息失利 上檔賣壓待消化</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711324</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711333</t>
         </is>
       </c>
     </row>
@@ -3671,12 +3671,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>布局國際 櫃買與菲證交所簽署MOU</t>
+          <t>熱門股》外資買翻天 神達爆量大漲</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711335</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711330</t>
         </is>
       </c>
     </row>
@@ -3688,12 +3688,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>壽險匯損暴增 金管會祭三箭降衝擊</t>
+          <t>政院：盤整最終方案 爭取最大利益</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711326</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711324</t>
         </is>
       </c>
     </row>
@@ -3705,12 +3705,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>啟動「四大轉型、三大發展方向」 南亞吳嘉昭：看好下半年</t>
+          <t>布局國際 櫃買與菲證交所簽署MOU</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711329</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711335</t>
         </is>
       </c>
     </row>
@@ -3722,12 +3722,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>台達電機器人獲歐洲新單 打入義大利滑軌供應鏈</t>
+          <t>壽險匯損暴增 金管會祭三箭降衝擊</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711328</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711326</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>央行出手了！台幣一度狂升逼近29.5元 午盤急轉貶暫收29.675元</t>
+          <t>啟動「四大轉型、三大發展方向」 南亞吳嘉昭：看好下半年</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073971</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711329</t>
         </is>
       </c>
     </row>
@@ -3756,12 +3756,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Fed降息預期增 美元大跌、台幣勁揚2.6角</t>
+          <t>台達電機器人獲歐洲新單 打入義大利滑軌供應鏈</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711325</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711328</t>
         </is>
       </c>
     </row>
@@ -3773,12 +3773,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>美國通膨數據佳且公債需求穩健 華爾街震盪收高</t>
+          <t>中稀土出口暗留一手 藉機竊智財</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073608</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711327?utm_campaign=STARK_business_CTR&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
         </is>
       </c>
     </row>
@@ -3790,12 +3790,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>CNN：美國管制晶片出口 輝達財測將排除中國市場</t>
+          <t>央行出手了！台幣一度狂升逼近29.5元 午盤急轉貶暫收29.675元</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073605</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073971</t>
         </is>
       </c>
     </row>
@@ -3807,12 +3807,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>貿易及地緣政治局勢雙重打擊 歐股多收黑</t>
+          <t>美國通膨數據佳且公債需求穩健 華爾街震盪收高</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073587</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073608</t>
         </is>
       </c>
     </row>
@@ -3824,12 +3824,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>MACO！馬斯克向川普認錯後獲網封新綽號</t>
+          <t>CNN：美國管制晶片出口 輝達財測將排除中國市場</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073052</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073605</t>
         </is>
       </c>
     </row>
@@ -3841,12 +3841,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>他出售山坡地險被追繳贈與稅 這樣做終於解套</t>
+          <t>貿易及地緣政治局勢雙重打擊 歐股多收黑</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073199</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073587</t>
         </is>
       </c>
     </row>
@@ -3858,12 +3858,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>中稀土出口暗留一手 藉機竊智財</t>
+          <t>熱門股》特斯拉推自駕車 亞光股漲</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711327?utm_campaign=STARK_business_CTR&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711331</t>
         </is>
       </c>
     </row>
@@ -3875,12 +3875,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>美出口限制影響大 輝達未來財測將排除中國市場</t>
+          <t>關稅燒到冰箱、洗衣機！美商務部宣佈6/23起進口家電加徵50％關稅</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073639</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073640</t>
         </is>
       </c>
     </row>
@@ -3892,12 +3892,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>關稅燒到冰箱、洗衣機！美商務部宣佈6/23起進口家電加徵50％關稅</t>
+          <t>Fed降息預期增 美元大跌、台幣勁揚2.6角</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073640</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711325</t>
         </is>
       </c>
     </row>
@@ -3909,12 +3909,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>駁斥CBO 2.4兆美元赤字！貝森特：減稅法案加關稅收入 10年內財政盈餘飆「此數」</t>
+          <t>印航波音787黑盒子找到了！起飛30秒就墜毀、可能原因曝光</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073644</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073626?utm_campaign=STARK_business_CTR&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
         </is>
       </c>
     </row>
@@ -3926,12 +3926,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>波音股價下跌近5％ 執行長重振公司道路艱難</t>
+          <t>美出口限制影響大 輝達未來財測將排除中國市場</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073918</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073639</t>
         </is>
       </c>
     </row>
@@ -3943,12 +3943,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>廣達拍板衝刺量子電腦 林百里：十年一劍剛剛好</t>
+          <t>駁斥CBO 2.4兆美元赤字！貝森特：減稅法案加關稅收入 10年內財政盈餘飆「此數」</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073911</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073644</t>
         </is>
       </c>
     </row>
@@ -3960,12 +3960,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>焦點股》富世達：投信本月大掃貨 股價衝上800元大關</t>
+          <t>波音股價下跌近5％ 執行長重振公司道路艱難</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073907</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073918</t>
         </is>
       </c>
     </row>
@@ -3977,12 +3977,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>玉山金舉行股東會 通過配發股利1.3元</t>
+          <t>廣達拍板衝刺量子電腦 林百里：十年一劍剛剛好</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073892</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073911</t>
         </is>
       </c>
     </row>
@@ -3994,12 +3994,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>中國騰訊考慮買下南韓Nexon！楓之谷、爆爆王等IP恐將易主</t>
+          <t>焦點股》富世達：投信本月大掃貨 股價衝上800元大關</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073634</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073907</t>
         </is>
       </c>
     </row>
@@ -4011,12 +4011,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>預約突破 200 萬！《文明帝國：同盟時代》里程碑獎勵全數解鎖</t>
+          <t>玉山金舉行股東會 通過配發股利1.3元</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>https://market.ltn.com.tw/article/17473</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073892</t>
         </is>
       </c>
     </row>
@@ -4028,12 +4028,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>中國人獲日本永居的「捷徑」被盯上 ! 日本準備收緊「1簽證」計劃</t>
+          <t>中國騰訊考慮買下南韓Nexon！楓之谷、爆爆王等IP恐將易主</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073653</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073634</t>
         </is>
       </c>
     </row>
@@ -4045,12 +4045,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>焦點股》聯發科：Google ASIC專案又延後 股價兩天下跌近5％</t>
+          <t>預約突破 200 萬！《文明帝國：同盟時代》里程碑獎勵全數解鎖</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073881</t>
+          <t>https://market.ltn.com.tw/article/17473</t>
         </is>
       </c>
     </row>
@@ -4062,12 +4062,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>以色列先發制人襲擊伊朗！美股期貨全面下殺 美債、黃金及原油走強</t>
+          <t>中國人獲日本永居的「捷徑」被盯上 ! 日本準備收緊「1簽證」計劃</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073645</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073653</t>
         </is>
       </c>
     </row>
@@ -4079,12 +4079,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>中國狂蓋地鐵卻爆「鉅額虧損」！法媒曝背後驚人內幕</t>
+          <t>焦點股》聯發科：Google ASIC專案又延後 股價兩天下跌近5％</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073638</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073881</t>
         </is>
       </c>
     </row>
@@ -4096,12 +4096,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>不能只依賴中國 川普考慮動用國防生產法資助美稀土業</t>
+          <t>以色列先發制人襲擊伊朗！美股期貨全面下殺 美債、黃金及原油走強</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073692</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073645</t>
         </is>
       </c>
     </row>
@@ -4113,12 +4113,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>夏日戲水注意！台電提醒：遠離水力電廠放流區域 避免放水發生意外</t>
+          <t>中國狂蓋地鐵卻爆「鉅額虧損」！法媒曝背後驚人內幕</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073765</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073638</t>
         </is>
       </c>
     </row>
@@ -4130,12 +4130,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>急起直追！蘇姿丰：AMD新晶片超越輝達</t>
+          <t>不能只依賴中國 川普考慮動用國防生產法資助美稀土業</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073661</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073692</t>
         </is>
       </c>
     </row>
@@ -4147,12 +4147,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>黃金上漲觸一週高點 但專家說有「阻礙」？</t>
+          <t>夏日戲水注意！台電提醒：遠離水力電廠放流區域 避免放水發生意外</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073646</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073765</t>
         </is>
       </c>
     </row>
@@ -4164,12 +4164,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>油市驚魂夜！以色列襲擊伊朗 國際油價直接漲破2個月新高</t>
+          <t>急起直追！蘇姿丰：AMD新晶片超越輝達</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073690</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073661</t>
         </is>
       </c>
     </row>
@@ -4181,12 +4181,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>台積電在日營收曝光！熊本2廠延期動工有原因</t>
+          <t>川普：很快將調升汽車關稅 以增加美國產量</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073632</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073641</t>
         </is>
       </c>
     </row>
@@ -4198,12 +4198,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>新台幣狂升1.58角觸及29.502元！升破5月初禿鷹29.59元關卡</t>
+          <t>台積電在日營收曝光！熊本2廠延期動工有原因</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073693</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073632</t>
         </is>
       </c>
     </row>
@@ -4215,12 +4215,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>川普：很快將調升汽車關稅 以增加美國產量</t>
+          <t>新台幣狂升1.58角觸及29.502元！升破5月初禿鷹29.59元關卡</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073641</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073693</t>
         </is>
       </c>
     </row>
@@ -4232,12 +4232,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>川普又砲轟鮑爾 美國年損17兆元都是「他」的錯？</t>
+          <t>儒鴻新客戶訂單倍增 品牌客戶穩定挹注下半年</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073636</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073701?utm_campaign=STARK_business_CTR&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
         </is>
       </c>
     </row>
@@ -4249,12 +4249,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>高層套現潮一波波 ! 外媒爆料 : 輝達內部人士「近5年」沒買進自家股票</t>
+          <t>油市驚魂夜！以色列襲擊伊朗 國際油價直接漲破2個月新高</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073642</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073690</t>
         </is>
       </c>
     </row>
@@ -4266,12 +4266,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>沒念大學年薪也能近300萬！5個「新領工作」不看學歷只看實力</t>
+          <t>高層套現潮一波波 ! 外媒爆料 : 輝達內部人士「近5年」沒買進自家股票</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073627</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073642</t>
         </is>
       </c>
     </row>
@@ -4283,12 +4283,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>儒鴻新客戶訂單倍增 品牌客戶穩定挹注下半年</t>
+          <t>洗錢逾50億！合法第三方支付平台「台灣里」負責人黃柏菖等6人羈押禁見</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073701?utm_campaign=STARK_business_CTR&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073753?utm_campaign=STARK_business_CTR&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
         </is>
       </c>
     </row>
@@ -4300,46 +4300,46 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>印航波音787黑盒子找到了！起飛30秒就墜毀、可能原因曝光</t>
+          <t>沒念大學年薪也能近300萬！5個「新領工作」不看學歷只看實力</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073626</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073627</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2025-06-14</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>華爾街日報：中國工程師赴第三國 租用輝達伺服器訓練AI模型</t>
+          <t>川普又砲轟鮑爾 美國年損17兆元都是「他」的錯？</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074625</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073636</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2025-06-14</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>3C達人踢爆韓國中小企業 遭華為趕盡殺絕血淚史</t>
+          <t>黃金上漲觸一週高點 但專家說有「阻礙」？</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074484</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073646</t>
         </is>
       </c>
     </row>
@@ -4351,12 +4351,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>選邊站？越南正式加入金磚國家 成為第10個夥伴國</t>
+          <t>3C達人踢爆韓國中小企業 遭華為趕盡殺絕血淚史</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074864</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074484</t>
         </is>
       </c>
     </row>
@@ -4385,12 +4385,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>以伊衝突震撼市場！國際油價一度暴漲14％、創俄烏戰爭以來紀錄</t>
+          <t>高雄港站容積調配案過關 留住哈瑪星5.7公頃鐵道空間</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074771</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074845</t>
         </is>
       </c>
     </row>
@@ -4402,12 +4402,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>遭非裔企業家求償2954億元 美國麥當勞完成和解</t>
+          <t>以伊衝突震撼市場！國際油價一度暴漲14％、創俄烏戰爭以來紀錄</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074786</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074771</t>
         </is>
       </c>
     </row>
@@ -4419,12 +4419,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>印度53歲億萬富翁 吞下一隻蜜蜂後猝逝</t>
+          <t>遭非裔企業家求償2954億元 美國麥當勞完成和解</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074790</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074786</t>
         </is>
       </c>
     </row>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>國際財經</t>
+          <t>印度53歲億萬富翁 吞下一隻蜜蜂後猝逝</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074108</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074790</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4453,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>合法農舍旁鋪水泥？小心變更使用要補稅！</t>
+          <t>國際財經</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074810</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074108</t>
         </is>
       </c>
     </row>
@@ -4470,12 +4470,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>誠品生活台南正式開幕 估創年消費人群可達400萬人次</t>
+          <t>合法農舍旁鋪水泥？小心變更使用要補稅！</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075035</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074810</t>
         </is>
       </c>
     </row>
@@ -4487,12 +4487,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>臻鼎董事長沈慶芳 獲頒中央大學名譽博士</t>
+          <t>選邊站？越南正式加入金磚國家 成為第10個夥伴國</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074896</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074864</t>
         </is>
       </c>
     </row>
@@ -4504,12 +4504,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>美債將迎「動盪之夏」！投資人得小心這3大變數</t>
+          <t>新竹老農賣地恐繳千萬增值稅 竹市稅務局出手成功節稅90萬元</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074802</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075064</t>
         </is>
       </c>
     </row>
@@ -4521,12 +4521,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>英特爾美晶圓廠7月中旬首波裁員 中層管理皮皮挫 不排除第2輪</t>
+          <t>美債將迎「動盪之夏」！投資人得小心這3大變數</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075022</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074802</t>
         </is>
       </c>
     </row>
@@ -4538,12 +4538,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>昔日中國汽車銷量一哥倒了！哪吒汽車5年燒光逾750億</t>
+          <t>英特爾美晶圓廠7月中旬首波裁員 中層管理皮皮挫 不排除第2輪</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075034</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075022</t>
         </is>
       </c>
     </row>
@@ -4555,12 +4555,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>新竹老農賣地恐繳千萬增值稅 竹市稅務局出手成功節稅90萬元</t>
+          <t>誠品生活台南正式開幕 估創年消費人群可達400萬人次</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075064</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075035</t>
         </is>
       </c>
     </row>
@@ -4572,12 +4572,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>軍情預測神器？以色列開打前夕、五角大廈披薩訂單激增</t>
+          <t>昔日中國汽車銷量一哥倒了！哪吒汽車5年燒光逾750億</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075060</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075034</t>
         </is>
       </c>
     </row>
@@ -4589,12 +4589,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>蘇姿丰救了三星？HBM3E拿到AMD訂單</t>
+          <t>軍情預測神器？以色列開打前夕、五角大廈披薩訂單激增</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075093</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075060</t>
         </is>
       </c>
     </row>
@@ -4606,12 +4606,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>股價優於預期 投顧：政經環境不如想像差</t>
+          <t>蘇姿丰救了三星？HBM3E拿到AMD訂單</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074735</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075093</t>
         </is>
       </c>
     </row>
@@ -4640,12 +4640,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>高雄港站容積調配案過關 留住哈瑪星5.7公頃鐵道空間</t>
+          <t>Costco最新政策讓會員樂翻！但員工不開心：「絕對是場惡夢」</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074845</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075109</t>
         </is>
       </c>
     </row>
@@ -4657,12 +4657,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>沒有醫學系！美調查：大學讀「這12科系」未來收入最高</t>
+          <t>華爾街日報：中國工程師赴第三國 租用輝達伺服器訓練AI模型</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074606</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074625</t>
         </is>
       </c>
     </row>
@@ -4674,12 +4674,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>川普擴大鋼鋁稅 8類進口家電增至50％</t>
+          <t>馬斯克好慘！瑞典退休基金砍光特斯拉持股 套現逾400億</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711586</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075089</t>
         </is>
       </c>
     </row>
@@ -4691,12 +4691,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>伊朗射彈報復以色列！道瓊狂洩769點 台積電ADR下挫逾2％</t>
+          <t>臻鼎董事長沈慶芳 獲頒中央大學名譽博士</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074753</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074896</t>
         </is>
       </c>
     </row>
@@ -4708,12 +4708,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Costco最新政策讓會員樂翻！但員工不開心：「絕對是場惡夢」</t>
+          <t>股價優於預期 投顧：政經環境不如想像差</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075109</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074735</t>
         </is>
       </c>
     </row>
@@ -4725,12 +4725,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>中東局勢緊張引發憂慮 歐股走低</t>
+          <t>廣達AI伺服器搶得先機 力拚轉型智慧車載、醫療</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074734</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711486</t>
         </is>
       </c>
     </row>
@@ -4742,12 +4742,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>AI推升電力需求 華城、士電營運強</t>
+          <t>以色列空襲伊朗黃金飆漲！差一步破歷史新高</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711487</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074166</t>
         </is>
       </c>
     </row>
@@ -4759,12 +4759,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>下半年關稅衝擊顯現 台綜院︰今年經濟成長拚保三</t>
+          <t>以伊互轟伊朗貨幣嚇崩 92萬里亞爾只換到1美元</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711584</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075177</t>
         </is>
       </c>
     </row>
@@ -4776,12 +4776,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>下週油價／中油啟動平穩機制 汽油估持平或降0.1元</t>
+          <t>中東局勢緊張引發憂慮 歐股走低</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711491</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074734</t>
         </is>
       </c>
     </row>
@@ -4793,12 +4793,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>卓揆：3防線堵洗產地 有利台美關稅談判 視察台北關 強調台美經濟安全立場一致</t>
+          <t>AI推升電力需求 華城、士電營運強</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711466</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711487</t>
         </is>
       </c>
     </row>
@@ -4810,12 +4810,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>壽險金控看匯率》凱基金老董掛保證 人壽依然會最賺</t>
+          <t>下半年關稅衝擊顯現 台綜院︰今年經濟成長拚保三</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711582</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711584</t>
         </is>
       </c>
     </row>
@@ -4827,12 +4827,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>壽險金控看匯率》國泰金：匯率巨震估已過 仍須小心應對</t>
+          <t>下週油價／中油啟動平穩機制 汽油估持平或降0.1元</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711580</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711491</t>
         </is>
       </c>
     </row>
@@ -4844,12 +4844,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>壽險金控看匯率》富邦金：台幣升值有利有弊 對台灣資產是好事</t>
+          <t>卓揆：3防線堵洗產地 有利台美關稅談判 視察台北關 強調台美經濟安全立場一致</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711581</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711466</t>
         </is>
       </c>
     </row>
@@ -4861,12 +4861,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>以色列空襲伊朗黃金飆漲！差一步破歷史新高</t>
+          <t>壽險金控看匯率》凱基金老董掛保證 人壽依然會最賺</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074166</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711582</t>
         </is>
       </c>
     </row>
@@ -4878,12 +4878,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>央行出手穩匯 台幣創高後小貶</t>
+          <t>壽險金控看匯率》國泰金：匯率巨震估已過 仍須小心應對</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711579</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711580</t>
         </is>
       </c>
     </row>
@@ -4895,12 +4895,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>我對外資產、負債雙創高 成全球第6大淨債權國</t>
+          <t>壽險金控看匯率》富邦金：台幣升值有利有弊 對台灣資產是好事</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711583</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711581</t>
         </is>
       </c>
     </row>
@@ -4912,12 +4912,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>盤勢分析》中東戰火又起 拉回布局</t>
+          <t>央行出手穩匯 台幣創高後小貶</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711489</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711579</t>
         </is>
       </c>
     </row>
@@ -4929,12 +4929,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>股東會速報》今年票價下降正常 星宇：爆發式獲利難</t>
+          <t>川普擴大鋼鋁稅 8類進口家電增至50％</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711490</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711586</t>
         </is>
       </c>
     </row>
@@ -4946,12 +4946,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>財經青紅燈》亞資中心的成敗關鍵</t>
+          <t>我對外資產、負債雙創高 成全球第6大淨債權國</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711494</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711583</t>
         </is>
       </c>
     </row>
@@ -4963,12 +4963,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>運價終止連5漲 美西線暴跌26.5%</t>
+          <t>盤勢分析》中東戰火又起 拉回布局</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711488</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711489</t>
         </is>
       </c>
     </row>
@@ -4980,12 +4980,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>金控交棒》林知延接華南金副董 蔡宗翰掌國泰金副董</t>
+          <t>股東會速報》今年票價下降正常 星宇：爆發式獲利難</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711585</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711490</t>
         </is>
       </c>
     </row>
@@ -4997,12 +4997,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>飆股幕後》客戶需求旺 外資卡位 勤誠2個月漲1倍</t>
+          <t>財經青紅燈》亞資中心的成敗關鍵</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711492</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711494</t>
         </is>
       </c>
     </row>
@@ -5014,12 +5014,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>飆股幕後》業務多元化 營收創高 jpp-KY6月漲36%</t>
+          <t>運價終止連5漲 美西線暴跌26.5%</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711493</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711488</t>
         </is>
       </c>
     </row>
@@ -5031,12 +5031,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>中東局勢緊張引發賣壓 美股收黑</t>
+          <t>金控交棒》林知延接華南金副董 蔡宗翰掌國泰金副董</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074752</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711585</t>
         </is>
       </c>
     </row>
@@ -5048,12 +5048,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>廣達AI伺服器搶得先機 力拚轉型智慧車載、醫療</t>
+          <t>飆股幕後》客戶需求旺 外資卡位 勤誠2個月漲1倍</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711486</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711492</t>
         </is>
       </c>
     </row>
@@ -5065,12 +5065,80 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>馬斯克好慘！瑞典退休基金砍光特斯拉持股 套現逾400億</t>
+          <t>飆股幕後》業務多元化 營收創高 jpp-KY6月漲36%</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075089</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711493</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>中東局勢緊張引發賣壓 美股收黑</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074752</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>伊朗射彈報復以色列！道瓊狂洩769點 台積電ADR下挫逾2％</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074753</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>沒有醫學系！美調查：大學讀「這12科系」未來收入最高</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074606</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>習近平兩個衝突目標走鋼索 不敢讓爛企業倒閉</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075169</t>
         </is>
       </c>
     </row>

--- a/整合結果/自由時報/excel_by_week/2025_W24.xlsx
+++ b/整合結果/自由時報/excel_by_week/2025_W24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C277"/>
+  <dimension ref="A1:C278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3416,12 +3416,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>甲骨文飆13％提振科技股！道瓊漲101點 台積電ADR升近1％</t>
+          <t>波音787-8型夢幻客機遇空難全毀 波音股價大跌近5％</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073611</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073494</t>
         </is>
       </c>
     </row>
@@ -3552,12 +3552,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>波音787-8型夢幻客機遇空難全毀 波音股價大跌近5％</t>
+          <t>甲骨文飆13％提振科技股！道瓊漲101點 台積電ADR升近1％</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073494</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073611</t>
         </is>
       </c>
     </row>
@@ -3960,12 +3960,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>波音股價下跌近5％ 執行長重振公司道路艱難</t>
+          <t>不能只依賴中國 川普考慮動用國防生產法資助美稀土業</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073918</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073692</t>
         </is>
       </c>
     </row>
@@ -4130,12 +4130,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>不能只依賴中國 川普考慮動用國防生產法資助美稀土業</t>
+          <t>波音股價下跌近5％ 執行長重振公司道路艱難</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073692</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073918</t>
         </is>
       </c>
     </row>
@@ -4198,12 +4198,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>台積電在日營收曝光！熊本2廠延期動工有原因</t>
+          <t>油市驚魂夜！以色列襲擊伊朗 國際油價直接漲破2個月新高</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073632</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073690</t>
         </is>
       </c>
     </row>
@@ -4215,12 +4215,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>新台幣狂升1.58角觸及29.502元！升破5月初禿鷹29.59元關卡</t>
+          <t>台積電在日營收曝光！熊本2廠延期動工有原因</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073693</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073632</t>
         </is>
       </c>
     </row>
@@ -4232,12 +4232,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>儒鴻新客戶訂單倍增 品牌客戶穩定挹注下半年</t>
+          <t>新台幣狂升1.58角觸及29.502元！升破5月初禿鷹29.59元關卡</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073701?utm_campaign=STARK_business_CTR&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073693</t>
         </is>
       </c>
     </row>
@@ -4249,12 +4249,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>油市驚魂夜！以色列襲擊伊朗 國際油價直接漲破2個月新高</t>
+          <t>黃金上漲觸一週高點 但專家說有「阻礙」？</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073690</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073646</t>
         </is>
       </c>
     </row>
@@ -4266,12 +4266,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>高層套現潮一波波 ! 外媒爆料 : 輝達內部人士「近5年」沒買進自家股票</t>
+          <t>川普又砲轟鮑爾 美國年損17兆元都是「他」的錯？</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073642</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073636</t>
         </is>
       </c>
     </row>
@@ -4283,12 +4283,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>洗錢逾50億！合法第三方支付平台「台灣里」負責人黃柏菖等6人羈押禁見</t>
+          <t>高層套現潮一波波 ! 外媒爆料 : 輝達內部人士「近5年」沒買進自家股票</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073753?utm_campaign=STARK_business_CTR&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073642</t>
         </is>
       </c>
     </row>
@@ -4300,12 +4300,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>沒念大學年薪也能近300萬！5個「新領工作」不看學歷只看實力</t>
+          <t>洗錢逾50億！合法第三方支付平台「台灣里」負責人黃柏菖等6人羈押禁見</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073627</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073753?utm_campaign=STARK_business_CTR&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
         </is>
       </c>
     </row>
@@ -4317,12 +4317,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>川普又砲轟鮑爾 美國年損17兆元都是「他」的錯？</t>
+          <t>沒念大學年薪也能近300萬！5個「新領工作」不看學歷只看實力</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073636</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073627</t>
         </is>
       </c>
     </row>
@@ -4334,12 +4334,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>黃金上漲觸一週高點 但專家說有「阻礙」？</t>
+          <t>儒鴻新客戶訂單倍增 品牌客戶穩定挹注下半年</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073646</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073701?utm_campaign=STARK_business_CTR&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
         </is>
       </c>
     </row>
@@ -4368,12 +4368,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>以伊衝突嚇壞市場！黃金本週大漲逾4％ 「這時」上看4000美元</t>
+          <t>臻鼎董事長沈慶芳 獲頒中央大學名譽博士</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074770</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074896</t>
         </is>
       </c>
     </row>
@@ -4385,12 +4385,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>高雄港站容積調配案過關 留住哈瑪星5.7公頃鐵道空間</t>
+          <t>以伊衝突震撼市場！國際油價一度暴漲14％、創俄烏戰爭以來紀錄</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074845</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074771</t>
         </is>
       </c>
     </row>
@@ -4402,12 +4402,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>以伊衝突震撼市場！國際油價一度暴漲14％、創俄烏戰爭以來紀錄</t>
+          <t>遭非裔企業家求償2954億元 美國麥當勞完成和解</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074771</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074786</t>
         </is>
       </c>
     </row>
@@ -4419,12 +4419,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>遭非裔企業家求償2954億元 美國麥當勞完成和解</t>
+          <t>印度53歲億萬富翁 吞下一隻蜜蜂後猝逝</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074786</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074790</t>
         </is>
       </c>
     </row>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>印度53歲億萬富翁 吞下一隻蜜蜂後猝逝</t>
+          <t>國際財經</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074790</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074108</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4453,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>國際財經</t>
+          <t>合法農舍旁鋪水泥？小心變更使用要補稅！</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074108</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074810</t>
         </is>
       </c>
     </row>
@@ -4470,12 +4470,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>合法農舍旁鋪水泥？小心變更使用要補稅！</t>
+          <t>選邊站？越南正式加入金磚國家 成為第10個夥伴國</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074810</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074864</t>
         </is>
       </c>
     </row>
@@ -4487,12 +4487,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>選邊站？越南正式加入金磚國家 成為第10個夥伴國</t>
+          <t>高雄港站容積調配案過關 留住哈瑪星5.7公頃鐵道空間</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074864</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074845</t>
         </is>
       </c>
     </row>
@@ -4504,12 +4504,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>新竹老農賣地恐繳千萬增值稅 竹市稅務局出手成功節稅90萬元</t>
+          <t>以伊衝突嚇壞市場！黃金本週大漲逾4％ 「這時」上看4000美元</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075064</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074770</t>
         </is>
       </c>
     </row>
@@ -4521,12 +4521,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>美債將迎「動盪之夏」！投資人得小心這3大變數</t>
+          <t>新竹老農賣地恐繳千萬增值稅 竹市稅務局出手成功節稅90萬元</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074802</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075064</t>
         </is>
       </c>
     </row>
@@ -4657,12 +4657,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>華爾街日報：中國工程師赴第三國 租用輝達伺服器訓練AI模型</t>
+          <t>馬斯克好慘！瑞典退休基金砍光特斯拉持股 套現逾400億</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074625</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075089</t>
         </is>
       </c>
     </row>
@@ -4674,12 +4674,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>馬斯克好慘！瑞典退休基金砍光特斯拉持股 套現逾400億</t>
+          <t>華爾街日報：中國工程師赴第三國 租用輝達伺服器訓練AI模型</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075089</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074625</t>
         </is>
       </c>
     </row>
@@ -4691,12 +4691,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>臻鼎董事長沈慶芳 獲頒中央大學名譽博士</t>
+          <t>以伊互轟伊朗貨幣嚇崩 92萬里亞爾只換到1美元</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074896</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075177</t>
         </is>
       </c>
     </row>
@@ -4708,12 +4708,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>股價優於預期 投顧：政經環境不如想像差</t>
+          <t>美債將迎「動盪之夏」！投資人得小心這3大變數</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074735</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074802</t>
         </is>
       </c>
     </row>
@@ -4725,12 +4725,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>廣達AI伺服器搶得先機 力拚轉型智慧車載、醫療</t>
+          <t>股價優於預期 投顧：政經環境不如想像差</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711486</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074735</t>
         </is>
       </c>
     </row>
@@ -4742,12 +4742,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>以色列空襲伊朗黃金飆漲！差一步破歷史新高</t>
+          <t>廣達AI伺服器搶得先機 力拚轉型智慧車載、醫療</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074166</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711486</t>
         </is>
       </c>
     </row>
@@ -4759,12 +4759,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>以伊互轟伊朗貨幣嚇崩 92萬里亞爾只換到1美元</t>
+          <t>以色列空襲伊朗黃金飆漲！差一步破歷史新高</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075177</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074166</t>
         </is>
       </c>
     </row>
@@ -4776,12 +4776,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>中東局勢緊張引發憂慮 歐股走低</t>
+          <t>習近平兩個衝突目標走鋼索 不敢讓爛企業倒閉</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074734</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075169</t>
         </is>
       </c>
     </row>
@@ -4793,12 +4793,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>AI推升電力需求 華城、士電營運強</t>
+          <t>中東局勢緊張引發憂慮 歐股走低</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711487</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074734</t>
         </is>
       </c>
     </row>
@@ -4810,12 +4810,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>下半年關稅衝擊顯現 台綜院︰今年經濟成長拚保三</t>
+          <t>AI推升電力需求 華城、士電營運強</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711584</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711487</t>
         </is>
       </c>
     </row>
@@ -4827,12 +4827,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>下週油價／中油啟動平穩機制 汽油估持平或降0.1元</t>
+          <t>下半年關稅衝擊顯現 台綜院︰今年經濟成長拚保三</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711491</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711584</t>
         </is>
       </c>
     </row>
@@ -4844,12 +4844,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>卓揆：3防線堵洗產地 有利台美關稅談判 視察台北關 強調台美經濟安全立場一致</t>
+          <t>下週油價／中油啟動平穩機制 汽油估持平或降0.1元</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711466</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711491</t>
         </is>
       </c>
     </row>
@@ -4861,12 +4861,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>壽險金控看匯率》凱基金老董掛保證 人壽依然會最賺</t>
+          <t>卓揆：3防線堵洗產地 有利台美關稅談判 視察台北關 強調台美經濟安全立場一致</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711582</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711466</t>
         </is>
       </c>
     </row>
@@ -4878,12 +4878,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>壽險金控看匯率》國泰金：匯率巨震估已過 仍須小心應對</t>
+          <t>壽險金控看匯率》凱基金老董掛保證 人壽依然會最賺</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711580</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711582</t>
         </is>
       </c>
     </row>
@@ -4895,12 +4895,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>壽險金控看匯率》富邦金：台幣升值有利有弊 對台灣資產是好事</t>
+          <t>壽險金控看匯率》國泰金：匯率巨震估已過 仍須小心應對</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711581</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711580</t>
         </is>
       </c>
     </row>
@@ -4912,12 +4912,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>央行出手穩匯 台幣創高後小貶</t>
+          <t>壽險金控看匯率》富邦金：台幣升值有利有弊 對台灣資產是好事</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711579</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711581</t>
         </is>
       </c>
     </row>
@@ -4929,12 +4929,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>川普擴大鋼鋁稅 8類進口家電增至50％</t>
+          <t>央行出手穩匯 台幣創高後小貶</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711586</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711579</t>
         </is>
       </c>
     </row>
@@ -4946,12 +4946,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>我對外資產、負債雙創高 成全球第6大淨債權國</t>
+          <t>川普擴大鋼鋁稅 8類進口家電增至50％</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711583</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711586</t>
         </is>
       </c>
     </row>
@@ -4963,12 +4963,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>盤勢分析》中東戰火又起 拉回布局</t>
+          <t>我對外資產、負債雙創高 成全球第6大淨債權國</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711489</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711583</t>
         </is>
       </c>
     </row>
@@ -4980,12 +4980,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>股東會速報》今年票價下降正常 星宇：爆發式獲利難</t>
+          <t>盤勢分析》中東戰火又起 拉回布局</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711490</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711489</t>
         </is>
       </c>
     </row>
@@ -4997,12 +4997,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>財經青紅燈》亞資中心的成敗關鍵</t>
+          <t>股東會速報》今年票價下降正常 星宇：爆發式獲利難</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711494</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711490</t>
         </is>
       </c>
     </row>
@@ -5014,12 +5014,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>運價終止連5漲 美西線暴跌26.5%</t>
+          <t>財經青紅燈》亞資中心的成敗關鍵</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711488</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711494</t>
         </is>
       </c>
     </row>
@@ -5031,12 +5031,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>金控交棒》林知延接華南金副董 蔡宗翰掌國泰金副董</t>
+          <t>運價終止連5漲 美西線暴跌26.5%</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711585</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711488</t>
         </is>
       </c>
     </row>
@@ -5048,12 +5048,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>飆股幕後》客戶需求旺 外資卡位 勤誠2個月漲1倍</t>
+          <t>金控交棒》林知延接華南金副董 蔡宗翰掌國泰金副董</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711492</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711585</t>
         </is>
       </c>
     </row>
@@ -5065,12 +5065,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>飆股幕後》業務多元化 營收創高 jpp-KY6月漲36%</t>
+          <t>飆股幕後》客戶需求旺 外資卡位 勤誠2個月漲1倍</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711493</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711492</t>
         </is>
       </c>
     </row>
@@ -5082,12 +5082,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>中東局勢緊張引發賣壓 美股收黑</t>
+          <t>飆股幕後》業務多元化 營收創高 jpp-KY6月漲36%</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074752</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711493</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>伊朗射彈報復以色列！道瓊狂洩769點 台積電ADR下挫逾2％</t>
+          <t>中東局勢緊張引發賣壓 美股收黑</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074753</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074752</t>
         </is>
       </c>
     </row>
@@ -5116,12 +5116,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>沒有醫學系！美調查：大學讀「這12科系」未來收入最高</t>
+          <t>伊朗射彈報復以色列！道瓊狂洩769點 台積電ADR下挫逾2％</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074606</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074753</t>
         </is>
       </c>
     </row>
@@ -5133,12 +5133,29 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>習近平兩個衝突目標走鋼索 不敢讓爛企業倒閉</t>
+          <t>沒有醫學系！美調查：大學讀「這12科系」未來收入最高</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075169</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074606</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>川普年收入達178億 光靠加密貨幣就賺進17億</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075260</t>
         </is>
       </c>
     </row>

--- a/整合結果/自由時報/excel_by_week/2025_W24.xlsx
+++ b/整合結果/自由時報/excel_by_week/2025_W24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C278"/>
+  <dimension ref="A1:C284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3416,12 +3416,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>波音787-8型夢幻客機遇空難全毀 波音股價大跌近5％</t>
+          <t>搶救壽險業匯損 金管會祭出3大寬容措施</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073494</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073456</t>
         </is>
       </c>
     </row>
@@ -3501,12 +3501,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>搶救壽險業匯損 金管會祭出3大寬容措施</t>
+          <t>LTN經濟通》冰天雪地 卻成大國必爭之地</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073456</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5062809</t>
         </is>
       </c>
     </row>
@@ -3518,12 +3518,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>LTN經濟通》冰天雪地 卻成大國必爭之地</t>
+          <t>燒錢在美設廠還被嫌棄！這家晶片廠工程延宕每天噴掉1.5億</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5062809</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073505</t>
         </is>
       </c>
     </row>
@@ -3535,12 +3535,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>燒錢在美設廠還被嫌棄！這家晶片廠工程延宕每天噴掉1.5億</t>
+          <t>波音787-8型夢幻客機遇空難全毀 波音股價大跌近5％</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073505</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073494</t>
         </is>
       </c>
     </row>
@@ -3790,12 +3790,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>央行出手了！台幣一度狂升逼近29.5元 午盤急轉貶暫收29.675元</t>
+          <t>Fed降息預期增 美元大跌、台幣勁揚2.6角</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073971</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711325</t>
         </is>
       </c>
     </row>
@@ -3841,12 +3841,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>貿易及地緣政治局勢雙重打擊 歐股多收黑</t>
+          <t>央行出手了！台幣一度狂升逼近29.5元 午盤急轉貶暫收29.675元</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073587</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073971</t>
         </is>
       </c>
     </row>
@@ -3892,12 +3892,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Fed降息預期增 美元大跌、台幣勁揚2.6角</t>
+          <t>貿易及地緣政治局勢雙重打擊 歐股多收黑</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711325</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073587</t>
         </is>
       </c>
     </row>
@@ -3943,12 +3943,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>駁斥CBO 2.4兆美元赤字！貝森特：減稅法案加關稅收入 10年內財政盈餘飆「此數」</t>
+          <t>波音股價下跌近5％ 執行長重振公司道路艱難</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073644</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073918</t>
         </is>
       </c>
     </row>
@@ -4130,12 +4130,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>波音股價下跌近5％ 執行長重振公司道路艱難</t>
+          <t>駁斥CBO 2.4兆美元赤字！貝森特：減稅法案加關稅收入 10年內財政盈餘飆「此數」</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073918</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073644</t>
         </is>
       </c>
     </row>
@@ -4164,12 +4164,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>急起直追！蘇姿丰：AMD新晶片超越輝達</t>
+          <t>沒念大學年薪也能近300萬！5個「新領工作」不看學歷只看實力</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073661</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073627</t>
         </is>
       </c>
     </row>
@@ -4181,12 +4181,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>川普：很快將調升汽車關稅 以增加美國產量</t>
+          <t>洗錢逾50億！合法第三方支付平台「台灣里」負責人黃柏菖等6人羈押禁見</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073641</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073753?utm_campaign=STARK_business_CTR&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
         </is>
       </c>
     </row>
@@ -4198,12 +4198,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>油市驚魂夜！以色列襲擊伊朗 國際油價直接漲破2個月新高</t>
+          <t>高層套現潮一波波 ! 外媒爆料 : 輝達內部人士「近5年」沒買進自家股票</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073690</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073642</t>
         </is>
       </c>
     </row>
@@ -4215,12 +4215,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>台積電在日營收曝光！熊本2廠延期動工有原因</t>
+          <t>川普又砲轟鮑爾 美國年損17兆元都是「他」的錯？</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073632</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073636</t>
         </is>
       </c>
     </row>
@@ -4232,12 +4232,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>新台幣狂升1.58角觸及29.502元！升破5月初禿鷹29.59元關卡</t>
+          <t>儒鴻新客戶訂單倍增 品牌客戶穩定挹注下半年</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073693</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073701?utm_campaign=STARK_business_CTR&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
         </is>
       </c>
     </row>
@@ -4249,12 +4249,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>黃金上漲觸一週高點 但專家說有「阻礙」？</t>
+          <t>新台幣狂升1.58角觸及29.502元！升破5月初禿鷹29.59元關卡</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073646</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073693</t>
         </is>
       </c>
     </row>
@@ -4266,12 +4266,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>川普又砲轟鮑爾 美國年損17兆元都是「他」的錯？</t>
+          <t>台積電在日營收曝光！熊本2廠延期動工有原因</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073636</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073632</t>
         </is>
       </c>
     </row>
@@ -4283,12 +4283,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>高層套現潮一波波 ! 外媒爆料 : 輝達內部人士「近5年」沒買進自家股票</t>
+          <t>油市驚魂夜！以色列襲擊伊朗 國際油價直接漲破2個月新高</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073642</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073690</t>
         </is>
       </c>
     </row>
@@ -4300,12 +4300,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>洗錢逾50億！合法第三方支付平台「台灣里」負責人黃柏菖等6人羈押禁見</t>
+          <t>川普：很快將調升汽車關稅 以增加美國產量</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073753?utm_campaign=STARK_business_CTR&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073641</t>
         </is>
       </c>
     </row>
@@ -4317,12 +4317,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>沒念大學年薪也能近300萬！5個「新領工作」不看學歷只看實力</t>
+          <t>黃金上漲觸一週高點 但專家說有「阻礙」？</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073627</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073646</t>
         </is>
       </c>
     </row>
@@ -4334,12 +4334,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>儒鴻新客戶訂單倍增 品牌客戶穩定挹注下半年</t>
+          <t>急起直追！蘇姿丰：AMD新晶片超越輝達</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5073701?utm_campaign=STARK_business_CTR&amp;utm_source=BUSINESS&amp;utm_medium=hotnews_right</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5073661</t>
         </is>
       </c>
     </row>
@@ -4351,12 +4351,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>3C達人踢爆韓國中小企業 遭華為趕盡殺絕血淚史</t>
+          <t>誠品生活台南正式開幕 估創年消費人群可達400萬人次</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074484</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075035</t>
         </is>
       </c>
     </row>
@@ -4368,12 +4368,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>臻鼎董事長沈慶芳 獲頒中央大學名譽博士</t>
+          <t>英特爾美晶圓廠7月中旬首波裁員 中層管理皮皮挫 不排除第2輪</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074896</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075022</t>
         </is>
       </c>
     </row>
@@ -4385,12 +4385,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>以伊衝突震撼市場！國際油價一度暴漲14％、創俄烏戰爭以來紀錄</t>
+          <t>美債將迎「動盪之夏」！投資人得小心這3大變數</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074771</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074802</t>
         </is>
       </c>
     </row>
@@ -4402,12 +4402,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>遭非裔企業家求償2954億元 美國麥當勞完成和解</t>
+          <t>臻鼎董事長沈慶芳 獲頒中央大學名譽博士</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074786</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074896</t>
         </is>
       </c>
     </row>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>國際財經</t>
+          <t>選邊站？越南正式加入金磚國家 成為第10個夥伴國</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074108</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074864</t>
         </is>
       </c>
     </row>
@@ -4470,12 +4470,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>選邊站？越南正式加入金磚國家 成為第10個夥伴國</t>
+          <t>國際財經</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074864</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074108</t>
         </is>
       </c>
     </row>
@@ -4487,12 +4487,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>高雄港站容積調配案過關 留住哈瑪星5.7公頃鐵道空間</t>
+          <t>遭非裔企業家求償2954億元 美國麥當勞完成和解</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074845</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074786</t>
         </is>
       </c>
     </row>
@@ -4504,12 +4504,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>以伊衝突嚇壞市場！黃金本週大漲逾4％ 「這時」上看4000美元</t>
+          <t>高雄港站容積調配案過關 留住哈瑪星5.7公頃鐵道空間</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074770</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074845</t>
         </is>
       </c>
     </row>
@@ -4521,12 +4521,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>新竹老農賣地恐繳千萬增值稅 竹市稅務局出手成功節稅90萬元</t>
+          <t>昔日中國汽車銷量一哥倒了！哪吒汽車5年燒光逾750億</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075064</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075034</t>
         </is>
       </c>
     </row>
@@ -4538,12 +4538,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>英特爾美晶圓廠7月中旬首波裁員 中層管理皮皮挫 不排除第2輪</t>
+          <t>馬斯克好慘！瑞典退休基金砍光特斯拉持股 套現逾400億</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075022</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075089</t>
         </is>
       </c>
     </row>
@@ -4555,12 +4555,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>誠品生活台南正式開幕 估創年消費人群可達400萬人次</t>
+          <t>軍情預測神器？以色列開打前夕、五角大廈披薩訂單激增</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075035</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075060</t>
         </is>
       </c>
     </row>
@@ -4572,12 +4572,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>昔日中國汽車銷量一哥倒了！哪吒汽車5年燒光逾750億</t>
+          <t>蘇姿丰救了三星？HBM3E拿到AMD訂單</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075034</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075093</t>
         </is>
       </c>
     </row>
@@ -4589,12 +4589,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>軍情預測神器？以色列開打前夕、五角大廈披薩訂單激增</t>
+          <t>以伊衝突危及全球四分之一石油航道 船東拒通過危險海峽</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075060</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075129</t>
         </is>
       </c>
     </row>
@@ -4606,12 +4606,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>蘇姿丰救了三星？HBM3E拿到AMD訂單</t>
+          <t>Costco最新政策讓會員樂翻！但員工不開心：「絕對是場惡夢」</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075093</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075109</t>
         </is>
       </c>
     </row>
@@ -4623,12 +4623,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>以伊衝突危及全球四分之一石油航道 船東拒通過危險海峽</t>
+          <t>以伊互轟伊朗貨幣嚇崩 92萬里亞爾只換到1美元</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075129</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075177</t>
         </is>
       </c>
     </row>
@@ -4640,12 +4640,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Costco最新政策讓會員樂翻！但員工不開心：「絕對是場惡夢」</t>
+          <t>習近平兩個衝突目標走鋼索 不敢讓爛企業倒閉</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075109</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075169</t>
         </is>
       </c>
     </row>
@@ -4657,12 +4657,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>馬斯克好慘！瑞典退休基金砍光特斯拉持股 套現逾400億</t>
+          <t>川普年收入達178億 光靠加密貨幣就賺進17億</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075089</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075260</t>
         </is>
       </c>
     </row>
@@ -4674,12 +4674,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>華爾街日報：中國工程師赴第三國 租用輝達伺服器訓練AI模型</t>
+          <t>萬海旺春輪爆炸還沒沉 最新狀況曝光了</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074625</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075281</t>
         </is>
       </c>
     </row>
@@ -4691,12 +4691,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>以伊互轟伊朗貨幣嚇崩 92萬里亞爾只換到1美元</t>
+          <t>富比士：這項奢侈品 億萬富豪最離不開</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075177</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075303</t>
         </is>
       </c>
     </row>
@@ -4708,12 +4708,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>美債將迎「動盪之夏」！投資人得小心這3大變數</t>
+          <t>大學畢業生年薪最高前10名工作 300萬元起跳</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074802</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075371</t>
         </is>
       </c>
     </row>
@@ -4725,12 +4725,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>股價優於預期 投顧：政經環境不如想像差</t>
+          <t>以伊衝突震撼市場！國際油價一度暴漲14％、創俄烏戰爭以來紀錄</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074735</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074771</t>
         </is>
       </c>
     </row>
@@ -4742,12 +4742,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>廣達AI伺服器搶得先機 力拚轉型智慧車載、醫療</t>
+          <t>哈米尼逃了？多架伊朗班機飛離德黑蘭</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711486</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075364</t>
         </is>
       </c>
     </row>
@@ -4759,12 +4759,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>以色列空襲伊朗黃金飆漲！差一步破歷史新高</t>
+          <t>新竹老農賣地恐繳千萬增值稅 竹市稅務局出手成功節稅90萬元</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074166</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075064</t>
         </is>
       </c>
     </row>
@@ -4776,12 +4776,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>習近平兩個衝突目標走鋼索 不敢讓爛企業倒閉</t>
+          <t>以伊衝突嚇壞市場！黃金本週大漲逾4％ 「這時」上看4000美元</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075169</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074770</t>
         </is>
       </c>
     </row>
@@ -4793,12 +4793,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>中東局勢緊張引發憂慮 歐股走低</t>
+          <t>股東會速報》今年票價下降正常 星宇：爆發式獲利難</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074734</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711490</t>
         </is>
       </c>
     </row>
@@ -4810,12 +4810,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>AI推升電力需求 華城、士電營運強</t>
+          <t>華爾街日報：中國工程師赴第三國 租用輝達伺服器訓練AI模型</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711487</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074625</t>
         </is>
       </c>
     </row>
@@ -4827,12 +4827,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>下半年關稅衝擊顯現 台綜院︰今年經濟成長拚保三</t>
+          <t>川普關稅打出一手爛牌 迄今僅這國降低貿易壁壘</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711584</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075385</t>
         </is>
       </c>
     </row>
@@ -4844,12 +4844,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>下週油價／中油啟動平穩機制 汽油估持平或降0.1元</t>
+          <t>中東局勢緊張引發憂慮 歐股走低</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711491</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074734</t>
         </is>
       </c>
     </row>
@@ -4861,12 +4861,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>卓揆：3防線堵洗產地 有利台美關稅談判 視察台北關 強調台美經濟安全立場一致</t>
+          <t>AI推升電力需求 華城、士電營運強</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711466</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711487</t>
         </is>
       </c>
     </row>
@@ -4878,12 +4878,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>壽險金控看匯率》凱基金老董掛保證 人壽依然會最賺</t>
+          <t>下半年關稅衝擊顯現 台綜院︰今年經濟成長拚保三</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711582</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711584</t>
         </is>
       </c>
     </row>
@@ -4895,12 +4895,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>壽險金控看匯率》國泰金：匯率巨震估已過 仍須小心應對</t>
+          <t>下週油價／中油啟動平穩機制 汽油估持平或降0.1元</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711580</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711491</t>
         </is>
       </c>
     </row>
@@ -4912,12 +4912,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>壽險金控看匯率》富邦金：台幣升值有利有弊 對台灣資產是好事</t>
+          <t>卓揆：3防線堵洗產地 有利台美關稅談判 視察台北關 強調台美經濟安全立場一致</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711581</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711466</t>
         </is>
       </c>
     </row>
@@ -4929,12 +4929,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>央行出手穩匯 台幣創高後小貶</t>
+          <t>壽險金控看匯率》凱基金老董掛保證 人壽依然會最賺</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711579</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711582</t>
         </is>
       </c>
     </row>
@@ -4946,12 +4946,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>川普擴大鋼鋁稅 8類進口家電增至50％</t>
+          <t>壽險金控看匯率》國泰金：匯率巨震估已過 仍須小心應對</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711586</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711580</t>
         </is>
       </c>
     </row>
@@ -4963,12 +4963,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>我對外資產、負債雙創高 成全球第6大淨債權國</t>
+          <t>壽險金控看匯率》富邦金：台幣升值有利有弊 對台灣資產是好事</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711583</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711581</t>
         </is>
       </c>
     </row>
@@ -4980,12 +4980,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>盤勢分析》中東戰火又起 拉回布局</t>
+          <t>央行出手穩匯 台幣創高後小貶</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711489</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711579</t>
         </is>
       </c>
     </row>
@@ -4997,12 +4997,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>股東會速報》今年票價下降正常 星宇：爆發式獲利難</t>
+          <t>川普擴大鋼鋁稅 8類進口家電增至50％</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711490</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711586</t>
         </is>
       </c>
     </row>
@@ -5014,12 +5014,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>財經青紅燈》亞資中心的成敗關鍵</t>
+          <t>3C達人踢爆韓國中小企業 遭華為趕盡殺絕血淚史</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711494</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074484</t>
         </is>
       </c>
     </row>
@@ -5031,12 +5031,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>運價終止連5漲 美西線暴跌26.5%</t>
+          <t>廣達AI伺服器搶得先機 力拚轉型智慧車載、醫療</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711488</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711486</t>
         </is>
       </c>
     </row>
@@ -5048,12 +5048,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>金控交棒》林知延接華南金副董 蔡宗翰掌國泰金副董</t>
+          <t>盤勢分析》中東戰火又起 拉回布局</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711585</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711489</t>
         </is>
       </c>
     </row>
@@ -5065,12 +5065,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>飆股幕後》客戶需求旺 外資卡位 勤誠2個月漲1倍</t>
+          <t>財經青紅燈》亞資中心的成敗關鍵</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711492</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711494</t>
         </is>
       </c>
     </row>
@@ -5082,12 +5082,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>飆股幕後》業務多元化 營收創高 jpp-KY6月漲36%</t>
+          <t>運價終止連5漲 美西線暴跌26.5%</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/paper/1711493</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711488</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>中東局勢緊張引發賣壓 美股收黑</t>
+          <t>金控交棒》林知延接華南金副董 蔡宗翰掌國泰金副董</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074752</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711585</t>
         </is>
       </c>
     </row>
@@ -5116,12 +5116,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>伊朗射彈報復以色列！道瓊狂洩769點 台積電ADR下挫逾2％</t>
+          <t>飆股幕後》客戶需求旺 外資卡位 勤誠2個月漲1倍</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074753</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711492</t>
         </is>
       </c>
     </row>
@@ -5133,12 +5133,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>沒有醫學系！美調查：大學讀「這12科系」未來收入最高</t>
+          <t>飆股幕後》業務多元化 營收創高 jpp-KY6月漲36%</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5074606</t>
+          <t>https://ec.ltn.com.tw/article/paper/1711493</t>
         </is>
       </c>
     </row>
@@ -5150,12 +5150,114 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>川普年收入達178億 光靠加密貨幣就賺進17億</t>
+          <t>中東局勢緊張引發賣壓 美股收黑</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>https://ec.ltn.com.tw/article/breakingnews/5075260</t>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074752</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>伊朗射彈報復以色列！道瓊狂洩769點 台積電ADR下挫逾2％</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074753</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>以色列空襲伊朗黃金飆漲！差一步破歷史新高</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074166</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>沒有醫學系！美調查：大學讀「這12科系」未來收入最高</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074606</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>股價優於預期 投顧：政經環境不如想像差</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5074735</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>我對外資產、負債雙創高 成全球第6大淨債權國</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/paper/1711583</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2025-06-14</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>美日聯手抗中！川普拍板新日鐵收購美鋼</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>https://ec.ltn.com.tw/article/breakingnews/5075378</t>
         </is>
       </c>
     </row>
